--- a/js.xlsx
+++ b/js.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{09ED59AF-40BD-4548-BC07-E1F3823AA19B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1A7224CB-9A2E-AA40-8AA0-1C606BA0E9F8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="32700" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="32700" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数字证书" sheetId="40" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="41" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="42" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -605,6 +607,378 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="组合 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58B66C7-1BB0-1549-A212-1F373CEEAE03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18592800" cy="19189700"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="18592800" cy="19189700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="图片 1" descr="Vue 生命周期_javascript_02">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EAE2C93-47BF-A749-BBB2-C91EF73EA483}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="18592800" cy="9677400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="图片 2" descr="https://s9.51cto.com/images/blog/202206/06112518_629d739e2ff4c13831.png?x-oss-process=image/watermark,size_16,text_QDUxQ1RP5Y2a5a6i,color_FFFFFF,t_30,g_se,x_10,y_10,shadow_20,type_ZmFuZ3poZW5naGVpdGk=">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC15742C-D8C5-8B44-B3CB-0B66BED98EAC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="12700" y="9677400"/>
+            <a:ext cx="18542000" cy="9512300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="圆角矩形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E1E5CB-6134-F848-B5CE-7C2E3921D9B8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8763000" y="7239000"/>
+            <a:ext cx="571500" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="圆角矩形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80961850-8CC6-FB49-BC71-788502CA3153}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17043400" y="9283700"/>
+            <a:ext cx="1473200" cy="317500"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="圆角矩形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED9937D-94A9-B84A-A763-3FD8D3DDFF84}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15786100" y="18770600"/>
+            <a:ext cx="2654300" cy="317500"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>825085</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC395C11-36E4-4949-895D-937B141A6482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1650585" cy="1549400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21659</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0816BC-4BE3-1C4A-A1AA-5945433D5EB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1790700"/>
+          <a:ext cx="4974659" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -894,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F7E32A-6212-6D43-AE36-E16B38687072}">
   <dimension ref="D17:V19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AM28" sqref="AM28"/>
     </sheetView>
   </sheetViews>
@@ -921,42 +1295,69 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19386876-03C3-024D-8DB1-5D64B13C4D52}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB87F1B1-0967-B648-A001-D92DC8173B11}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="3" master=""/>
   <rangeList sheetStid="7" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -964,7 +1365,40 @@
 </settings>
 </file>
 
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -973,8 +1407,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -982,38 +1416,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>